--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/CodeSystem-jp-procedure-codes-ichi-cs.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/CodeSystem-jp-procedure-codes-ichi-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Codes ICHI</t>
+    <t>JP Core Procedure Codes ICHI CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -380,43 +383,45 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>
